--- a/main/db/excel/database.xlsx
+++ b/main/db/excel/database.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_D28FCE46B5A0891DDB6931D2B91BCFD7D18FD005" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12C20CC3-47FD-41C4-89B4-4C5ABFB33D05}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_D28FCE46B5A0891DDB6931D2B91BCFD7D18FD005" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B538AC2-1A65-4E63-A4B6-EE55B4EC7A9E}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1890" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="last-sound-list" sheetId="1" r:id="rId1"/>
+    <sheet name="podcasts-list" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="603">
   <si>
     <t>/images/img1.jpg</t>
   </si>
@@ -929,6 +930,906 @@
   </si>
   <si>
     <t>/audio/audio100.mp3</t>
+  </si>
+  <si>
+    <t>/podcasts/img1.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 1</t>
+  </si>
+  <si>
+    <t>Описание подкаста 1</t>
+  </si>
+  <si>
+    <t>/podcasts/img2.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 2</t>
+  </si>
+  <si>
+    <t>Описание подкаста 2</t>
+  </si>
+  <si>
+    <t>/podcasts/img3.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 3</t>
+  </si>
+  <si>
+    <t>Описание подкаста 3</t>
+  </si>
+  <si>
+    <t>/podcasts/img4.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 4</t>
+  </si>
+  <si>
+    <t>Описание подкаста 4</t>
+  </si>
+  <si>
+    <t>/podcasts/img5.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 5</t>
+  </si>
+  <si>
+    <t>Описание подкаста 5</t>
+  </si>
+  <si>
+    <t>/podcasts/img6.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 6</t>
+  </si>
+  <si>
+    <t>Описание подкаста 6</t>
+  </si>
+  <si>
+    <t>/podcasts/img7.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 7</t>
+  </si>
+  <si>
+    <t>Описание подкаста 7</t>
+  </si>
+  <si>
+    <t>/podcasts/img8.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 8</t>
+  </si>
+  <si>
+    <t>Описание подкаста 8</t>
+  </si>
+  <si>
+    <t>/podcasts/img9.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 9</t>
+  </si>
+  <si>
+    <t>Описание подкаста 9</t>
+  </si>
+  <si>
+    <t>/podcasts/img10.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 10</t>
+  </si>
+  <si>
+    <t>Описание подкаста 10</t>
+  </si>
+  <si>
+    <t>/podcasts/img11.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 11</t>
+  </si>
+  <si>
+    <t>Описание подкаста 11</t>
+  </si>
+  <si>
+    <t>/podcasts/img12.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 12</t>
+  </si>
+  <si>
+    <t>Описание подкаста 12</t>
+  </si>
+  <si>
+    <t>/podcasts/img13.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 13</t>
+  </si>
+  <si>
+    <t>Описание подкаста 13</t>
+  </si>
+  <si>
+    <t>/podcasts/img14.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 14</t>
+  </si>
+  <si>
+    <t>Описание подкаста 14</t>
+  </si>
+  <si>
+    <t>/podcasts/img15.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 15</t>
+  </si>
+  <si>
+    <t>Описание подкаста 15</t>
+  </si>
+  <si>
+    <t>/podcasts/img16.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 16</t>
+  </si>
+  <si>
+    <t>Описание подкаста 16</t>
+  </si>
+  <si>
+    <t>/podcasts/img17.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 17</t>
+  </si>
+  <si>
+    <t>Описание подкаста 17</t>
+  </si>
+  <si>
+    <t>/podcasts/img18.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 18</t>
+  </si>
+  <si>
+    <t>Описание подкаста 18</t>
+  </si>
+  <si>
+    <t>/podcasts/img19.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 19</t>
+  </si>
+  <si>
+    <t>Описание подкаста 19</t>
+  </si>
+  <si>
+    <t>/podcasts/img20.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 20</t>
+  </si>
+  <si>
+    <t>Описание подкаста 20</t>
+  </si>
+  <si>
+    <t>/podcasts/img21.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 21</t>
+  </si>
+  <si>
+    <t>Описание подкаста 21</t>
+  </si>
+  <si>
+    <t>/podcasts/img22.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 22</t>
+  </si>
+  <si>
+    <t>Описание подкаста 22</t>
+  </si>
+  <si>
+    <t>/podcasts/img23.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 23</t>
+  </si>
+  <si>
+    <t>Описание подкаста 23</t>
+  </si>
+  <si>
+    <t>/podcasts/img24.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 24</t>
+  </si>
+  <si>
+    <t>Описание подкаста 24</t>
+  </si>
+  <si>
+    <t>/podcasts/img25.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 25</t>
+  </si>
+  <si>
+    <t>Описание подкаста 25</t>
+  </si>
+  <si>
+    <t>/podcasts/img26.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 26</t>
+  </si>
+  <si>
+    <t>Описание подкаста 26</t>
+  </si>
+  <si>
+    <t>/podcasts/img27.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 27</t>
+  </si>
+  <si>
+    <t>Описание подкаста 27</t>
+  </si>
+  <si>
+    <t>/podcasts/img28.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 28</t>
+  </si>
+  <si>
+    <t>Описание подкаста 28</t>
+  </si>
+  <si>
+    <t>/podcasts/img29.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 29</t>
+  </si>
+  <si>
+    <t>Описание подкаста 29</t>
+  </si>
+  <si>
+    <t>/podcasts/img30.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 30</t>
+  </si>
+  <si>
+    <t>Описание подкаста 30</t>
+  </si>
+  <si>
+    <t>/podcasts/img31.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 31</t>
+  </si>
+  <si>
+    <t>Описание подкаста 31</t>
+  </si>
+  <si>
+    <t>/podcasts/img32.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 32</t>
+  </si>
+  <si>
+    <t>Описание подкаста 32</t>
+  </si>
+  <si>
+    <t>/podcasts/img33.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 33</t>
+  </si>
+  <si>
+    <t>Описание подкаста 33</t>
+  </si>
+  <si>
+    <t>/podcasts/img34.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 34</t>
+  </si>
+  <si>
+    <t>Описание подкаста 34</t>
+  </si>
+  <si>
+    <t>/podcasts/img35.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 35</t>
+  </si>
+  <si>
+    <t>Описание подкаста 35</t>
+  </si>
+  <si>
+    <t>/podcasts/img36.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 36</t>
+  </si>
+  <si>
+    <t>Описание подкаста 36</t>
+  </si>
+  <si>
+    <t>/podcasts/img37.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 37</t>
+  </si>
+  <si>
+    <t>Описание подкаста 37</t>
+  </si>
+  <si>
+    <t>/podcasts/img38.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 38</t>
+  </si>
+  <si>
+    <t>Описание подкаста 38</t>
+  </si>
+  <si>
+    <t>/podcasts/img39.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 39</t>
+  </si>
+  <si>
+    <t>Описание подкаста 39</t>
+  </si>
+  <si>
+    <t>/podcasts/img40.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 40</t>
+  </si>
+  <si>
+    <t>Описание подкаста 40</t>
+  </si>
+  <si>
+    <t>/podcasts/img41.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 41</t>
+  </si>
+  <si>
+    <t>Описание подкаста 41</t>
+  </si>
+  <si>
+    <t>/podcasts/img42.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 42</t>
+  </si>
+  <si>
+    <t>Описание подкаста 42</t>
+  </si>
+  <si>
+    <t>/podcasts/img43.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 43</t>
+  </si>
+  <si>
+    <t>Описание подкаста 43</t>
+  </si>
+  <si>
+    <t>/podcasts/img44.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 44</t>
+  </si>
+  <si>
+    <t>Описание подкаста 44</t>
+  </si>
+  <si>
+    <t>/podcasts/img45.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 45</t>
+  </si>
+  <si>
+    <t>Описание подкаста 45</t>
+  </si>
+  <si>
+    <t>/podcasts/img46.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 46</t>
+  </si>
+  <si>
+    <t>Описание подкаста 46</t>
+  </si>
+  <si>
+    <t>/podcasts/img47.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 47</t>
+  </si>
+  <si>
+    <t>Описание подкаста 47</t>
+  </si>
+  <si>
+    <t>/podcasts/img48.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 48</t>
+  </si>
+  <si>
+    <t>Описание подкаста 48</t>
+  </si>
+  <si>
+    <t>/podcasts/img49.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 49</t>
+  </si>
+  <si>
+    <t>Описание подкаста 49</t>
+  </si>
+  <si>
+    <t>/podcasts/img50.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 50</t>
+  </si>
+  <si>
+    <t>Описание подкаста 50</t>
+  </si>
+  <si>
+    <t>/podcasts/img51.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 51</t>
+  </si>
+  <si>
+    <t>Описание подкаста 51</t>
+  </si>
+  <si>
+    <t>/podcasts/img52.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 52</t>
+  </si>
+  <si>
+    <t>Описание подкаста 52</t>
+  </si>
+  <si>
+    <t>/podcasts/img53.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 53</t>
+  </si>
+  <si>
+    <t>Описание подкаста 53</t>
+  </si>
+  <si>
+    <t>/podcasts/img54.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 54</t>
+  </si>
+  <si>
+    <t>Описание подкаста 54</t>
+  </si>
+  <si>
+    <t>/podcasts/img55.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 55</t>
+  </si>
+  <si>
+    <t>Описание подкаста 55</t>
+  </si>
+  <si>
+    <t>/podcasts/img56.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 56</t>
+  </si>
+  <si>
+    <t>Описание подкаста 56</t>
+  </si>
+  <si>
+    <t>/podcasts/img57.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 57</t>
+  </si>
+  <si>
+    <t>Описание подкаста 57</t>
+  </si>
+  <si>
+    <t>/podcasts/img58.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 58</t>
+  </si>
+  <si>
+    <t>Описание подкаста 58</t>
+  </si>
+  <si>
+    <t>/podcasts/img59.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 59</t>
+  </si>
+  <si>
+    <t>Описание подкаста 59</t>
+  </si>
+  <si>
+    <t>/podcasts/img60.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 60</t>
+  </si>
+  <si>
+    <t>Описание подкаста 60</t>
+  </si>
+  <si>
+    <t>/podcasts/img61.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 61</t>
+  </si>
+  <si>
+    <t>Описание подкаста 61</t>
+  </si>
+  <si>
+    <t>/podcasts/img62.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 62</t>
+  </si>
+  <si>
+    <t>Описание подкаста 62</t>
+  </si>
+  <si>
+    <t>/podcasts/img63.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 63</t>
+  </si>
+  <si>
+    <t>Описание подкаста 63</t>
+  </si>
+  <si>
+    <t>/podcasts/img64.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 64</t>
+  </si>
+  <si>
+    <t>Описание подкаста 64</t>
+  </si>
+  <si>
+    <t>/podcasts/img65.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 65</t>
+  </si>
+  <si>
+    <t>Описание подкаста 65</t>
+  </si>
+  <si>
+    <t>/podcasts/img66.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 66</t>
+  </si>
+  <si>
+    <t>Описание подкаста 66</t>
+  </si>
+  <si>
+    <t>/podcasts/img67.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 67</t>
+  </si>
+  <si>
+    <t>Описание подкаста 67</t>
+  </si>
+  <si>
+    <t>/podcasts/img68.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 68</t>
+  </si>
+  <si>
+    <t>Описание подкаста 68</t>
+  </si>
+  <si>
+    <t>/podcasts/img69.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 69</t>
+  </si>
+  <si>
+    <t>Описание подкаста 69</t>
+  </si>
+  <si>
+    <t>/podcasts/img70.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 70</t>
+  </si>
+  <si>
+    <t>Описание подкаста 70</t>
+  </si>
+  <si>
+    <t>/podcasts/img71.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 71</t>
+  </si>
+  <si>
+    <t>Описание подкаста 71</t>
+  </si>
+  <si>
+    <t>/podcasts/img72.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 72</t>
+  </si>
+  <si>
+    <t>Описание подкаста 72</t>
+  </si>
+  <si>
+    <t>/podcasts/img73.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 73</t>
+  </si>
+  <si>
+    <t>Описание подкаста 73</t>
+  </si>
+  <si>
+    <t>/podcasts/img74.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 74</t>
+  </si>
+  <si>
+    <t>Описание подкаста 74</t>
+  </si>
+  <si>
+    <t>/podcasts/img75.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 75</t>
+  </si>
+  <si>
+    <t>Описание подкаста 75</t>
+  </si>
+  <si>
+    <t>/podcasts/img76.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 76</t>
+  </si>
+  <si>
+    <t>Описание подкаста 76</t>
+  </si>
+  <si>
+    <t>/podcasts/img77.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 77</t>
+  </si>
+  <si>
+    <t>Описание подкаста 77</t>
+  </si>
+  <si>
+    <t>/podcasts/img78.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 78</t>
+  </si>
+  <si>
+    <t>Описание подкаста 78</t>
+  </si>
+  <si>
+    <t>/podcasts/img79.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 79</t>
+  </si>
+  <si>
+    <t>Описание подкаста 79</t>
+  </si>
+  <si>
+    <t>/podcasts/img80.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 80</t>
+  </si>
+  <si>
+    <t>Описание подкаста 80</t>
+  </si>
+  <si>
+    <t>/podcasts/img81.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 81</t>
+  </si>
+  <si>
+    <t>Описание подкаста 81</t>
+  </si>
+  <si>
+    <t>/podcasts/img82.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 82</t>
+  </si>
+  <si>
+    <t>Описание подкаста 82</t>
+  </si>
+  <si>
+    <t>/podcasts/img83.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 83</t>
+  </si>
+  <si>
+    <t>Описание подкаста 83</t>
+  </si>
+  <si>
+    <t>/podcasts/img84.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 84</t>
+  </si>
+  <si>
+    <t>Описание подкаста 84</t>
+  </si>
+  <si>
+    <t>/podcasts/img85.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 85</t>
+  </si>
+  <si>
+    <t>Описание подкаста 85</t>
+  </si>
+  <si>
+    <t>/podcasts/img86.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 86</t>
+  </si>
+  <si>
+    <t>Описание подкаста 86</t>
+  </si>
+  <si>
+    <t>/podcasts/img87.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 87</t>
+  </si>
+  <si>
+    <t>Описание подкаста 87</t>
+  </si>
+  <si>
+    <t>/podcasts/img88.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 88</t>
+  </si>
+  <si>
+    <t>Описание подкаста 88</t>
+  </si>
+  <si>
+    <t>/podcasts/img89.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 89</t>
+  </si>
+  <si>
+    <t>Описание подкаста 89</t>
+  </si>
+  <si>
+    <t>/podcasts/img90.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 90</t>
+  </si>
+  <si>
+    <t>Описание подкаста 90</t>
+  </si>
+  <si>
+    <t>/podcasts/img91.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 91</t>
+  </si>
+  <si>
+    <t>Описание подкаста 91</t>
+  </si>
+  <si>
+    <t>/podcasts/img92.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 92</t>
+  </si>
+  <si>
+    <t>Описание подкаста 92</t>
+  </si>
+  <si>
+    <t>/podcasts/img93.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 93</t>
+  </si>
+  <si>
+    <t>Описание подкаста 93</t>
+  </si>
+  <si>
+    <t>/podcasts/img94.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 94</t>
+  </si>
+  <si>
+    <t>Описание подкаста 94</t>
+  </si>
+  <si>
+    <t>/podcasts/img95.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 95</t>
+  </si>
+  <si>
+    <t>Описание подкаста 95</t>
+  </si>
+  <si>
+    <t>/podcasts/img96.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 96</t>
+  </si>
+  <si>
+    <t>Описание подкаста 96</t>
+  </si>
+  <si>
+    <t>/podcasts/img97.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 97</t>
+  </si>
+  <si>
+    <t>Описание подкаста 97</t>
+  </si>
+  <si>
+    <t>/podcasts/img98.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 98</t>
+  </si>
+  <si>
+    <t>Описание подкаста 98</t>
+  </si>
+  <si>
+    <t>/podcasts/img99.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 99</t>
+  </si>
+  <si>
+    <t>Описание подкаста 99</t>
+  </si>
+  <si>
+    <t>/podcasts/img100.jpg</t>
+  </si>
+  <si>
+    <t>Подкаст 100</t>
+  </si>
+  <si>
+    <t>Описание подкаста 100</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1894,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1264,7 +2161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -3578,4 +4475,2322 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B440DF-5323-483E-8564-6382F70DF205}">
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="3">
+        <v>25569</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" s="3">
+        <v>25570</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.44513888888888886</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="3">
+        <v>25571</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="3">
+        <v>25572</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" s="3">
+        <v>25573</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6" s="3">
+        <v>25574</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="3">
+        <v>25575</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="3">
+        <v>25576</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.69513888888888886</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="3">
+        <v>25577</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.7368055555555556</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" s="3">
+        <v>25578</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="3">
+        <v>25579</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25580</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" s="3">
+        <v>25581</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.90347222222222223</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="3">
+        <v>25582</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15" s="3">
+        <v>25583</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.9868055555555556</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E16" s="3">
+        <v>25584</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E17" s="3">
+        <v>25585</v>
+      </c>
+      <c r="F17" s="4">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E18" s="3">
+        <v>25586</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E19" s="3">
+        <v>25587</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E20" s="3">
+        <v>25588</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E21" s="3">
+        <v>25589</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.23680555555555555</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E22" s="3">
+        <v>25590</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E23" s="3">
+        <v>25591</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E24" s="3">
+        <v>25592</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E25" s="3">
+        <v>25593</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E26" s="3">
+        <v>25594</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.44513888888888886</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" s="3">
+        <v>25595</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="3">
+        <v>25596</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E29" s="3">
+        <v>25597</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E30" s="3">
+        <v>25598</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E31" s="3">
+        <v>25599</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E32" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.69513888888888886</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E33" s="3">
+        <v>25601</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.7368055555555556</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E34" s="3">
+        <v>25602</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E35" s="3">
+        <v>25603</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E36" s="3">
+        <v>25604</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E37" s="3">
+        <v>25605</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.90347222222222223</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E38" s="3">
+        <v>25606</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E39" s="3">
+        <v>25607</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.9868055555555556</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E40" s="3">
+        <v>25608</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E41" s="3">
+        <v>25609</v>
+      </c>
+      <c r="F41" s="4">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E42" s="3">
+        <v>25610</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E43" s="3">
+        <v>25611</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E44" s="3">
+        <v>25612</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E45" s="3">
+        <v>25613</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.23680555555555555</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E46" s="3">
+        <v>25614</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E47" s="3">
+        <v>25615</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E48" s="3">
+        <v>25616</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E49" s="3">
+        <v>25617</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E50" s="3">
+        <v>25618</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.44513888888888886</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E51" s="3">
+        <v>25619</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E52" s="3">
+        <v>25620</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E53" s="3">
+        <v>25621</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E54" s="3">
+        <v>25622</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E55" s="3">
+        <v>25623</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E56" s="3">
+        <v>25624</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.69513888888888886</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E57" s="3">
+        <v>25625</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.7368055555555556</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E58" s="3">
+        <v>25626</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E59" s="3">
+        <v>25627</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E60" s="3">
+        <v>25628</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E61" s="3">
+        <v>25629</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.90347222222222223</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E62" s="3">
+        <v>25630</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E63" s="3">
+        <v>25631</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.9868055555555556</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E64" s="3">
+        <v>25632</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E65" s="3">
+        <v>25633</v>
+      </c>
+      <c r="F65" s="4">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25634</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E67" s="3">
+        <v>25635</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E68" s="3">
+        <v>25636</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E69" s="3">
+        <v>25637</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0.23680555555555555</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E70" s="3">
+        <v>25638</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E71" s="3">
+        <v>25639</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E72" s="3">
+        <v>25640</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E73" s="3">
+        <v>25641</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E74" s="3">
+        <v>25642</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0.44513888888888886</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E75" s="3">
+        <v>25643</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E76" s="3">
+        <v>25644</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E77" s="3">
+        <v>25645</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E78" s="3">
+        <v>25646</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E79" s="3">
+        <v>25647</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E80" s="3">
+        <v>25648</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0.69513888888888886</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E81" s="3">
+        <v>25649</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0.7368055555555556</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E82" s="3">
+        <v>25650</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E83" s="3">
+        <v>25651</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E84" s="3">
+        <v>25652</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E85" s="3">
+        <v>25653</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0.90347222222222223</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E86" s="3">
+        <v>25654</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E87" s="3">
+        <v>25655</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0.9868055555555556</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E88" s="3">
+        <v>25656</v>
+      </c>
+      <c r="F88" s="4">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E89" s="3">
+        <v>25657</v>
+      </c>
+      <c r="F89" s="4">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E90" s="3">
+        <v>25658</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E91" s="3">
+        <v>25659</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E92" s="3">
+        <v>25660</v>
+      </c>
+      <c r="F92" s="4">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E93" s="3">
+        <v>25661</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0.23680555555555555</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E94" s="3">
+        <v>25662</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E95" s="3">
+        <v>25663</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E96" s="3">
+        <v>25664</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E97" s="3">
+        <v>25665</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E98" s="3">
+        <v>25666</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0.44513888888888886</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E99" s="3">
+        <v>25667</v>
+      </c>
+      <c r="F99" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E100" s="3">
+        <v>25668</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/main/db/excel/database.xlsx
+++ b/main/db/excel/database.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_D28FCE46B5A0891DDB6931D2B91BCFD7D18FD005" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B538AC2-1A65-4E63-A4B6-EE55B4EC7A9E}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_D28FCE46B5A0891DDB6931D2B91BCFD7D18FD005" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6ECB943-03AC-43C8-8E79-E7A2B1C8E518}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1890" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="last-sound-list" sheetId="1" r:id="rId1"/>
     <sheet name="podcasts-list" sheetId="2" r:id="rId2"/>
+    <sheet name="news-list" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="903">
   <si>
     <t>/images/img1.jpg</t>
   </si>
@@ -1830,6 +1831,906 @@
   </si>
   <si>
     <t>Описание подкаста 100</t>
+  </si>
+  <si>
+    <t>/news/img1.jpg</t>
+  </si>
+  <si>
+    <t>Новость 1</t>
+  </si>
+  <si>
+    <t>Описание новости 1</t>
+  </si>
+  <si>
+    <t>/news/img2.jpg</t>
+  </si>
+  <si>
+    <t>Новость 2</t>
+  </si>
+  <si>
+    <t>Описание новости 2</t>
+  </si>
+  <si>
+    <t>/news/img3.jpg</t>
+  </si>
+  <si>
+    <t>Новость 3</t>
+  </si>
+  <si>
+    <t>Описание новости 3</t>
+  </si>
+  <si>
+    <t>/news/img4.jpg</t>
+  </si>
+  <si>
+    <t>Новость 4</t>
+  </si>
+  <si>
+    <t>Описание новости 4</t>
+  </si>
+  <si>
+    <t>/news/img5.jpg</t>
+  </si>
+  <si>
+    <t>Новость 5</t>
+  </si>
+  <si>
+    <t>Описание новости 5</t>
+  </si>
+  <si>
+    <t>/news/img6.jpg</t>
+  </si>
+  <si>
+    <t>Новость 6</t>
+  </si>
+  <si>
+    <t>Описание новости 6</t>
+  </si>
+  <si>
+    <t>/news/img7.jpg</t>
+  </si>
+  <si>
+    <t>Новость 7</t>
+  </si>
+  <si>
+    <t>Описание новости 7</t>
+  </si>
+  <si>
+    <t>/news/img8.jpg</t>
+  </si>
+  <si>
+    <t>Новость 8</t>
+  </si>
+  <si>
+    <t>Описание новости 8</t>
+  </si>
+  <si>
+    <t>/news/img9.jpg</t>
+  </si>
+  <si>
+    <t>Новость 9</t>
+  </si>
+  <si>
+    <t>Описание новости 9</t>
+  </si>
+  <si>
+    <t>/news/img10.jpg</t>
+  </si>
+  <si>
+    <t>Новость 10</t>
+  </si>
+  <si>
+    <t>Описание новости 10</t>
+  </si>
+  <si>
+    <t>/news/img11.jpg</t>
+  </si>
+  <si>
+    <t>Новость 11</t>
+  </si>
+  <si>
+    <t>Описание новости 11</t>
+  </si>
+  <si>
+    <t>/news/img12.jpg</t>
+  </si>
+  <si>
+    <t>Новость 12</t>
+  </si>
+  <si>
+    <t>Описание новости 12</t>
+  </si>
+  <si>
+    <t>/news/img13.jpg</t>
+  </si>
+  <si>
+    <t>Новость 13</t>
+  </si>
+  <si>
+    <t>Описание новости 13</t>
+  </si>
+  <si>
+    <t>/news/img14.jpg</t>
+  </si>
+  <si>
+    <t>Новость 14</t>
+  </si>
+  <si>
+    <t>Описание новости 14</t>
+  </si>
+  <si>
+    <t>/news/img15.jpg</t>
+  </si>
+  <si>
+    <t>Новость 15</t>
+  </si>
+  <si>
+    <t>Описание новости 15</t>
+  </si>
+  <si>
+    <t>/news/img16.jpg</t>
+  </si>
+  <si>
+    <t>Новость 16</t>
+  </si>
+  <si>
+    <t>Описание новости 16</t>
+  </si>
+  <si>
+    <t>/news/img17.jpg</t>
+  </si>
+  <si>
+    <t>Новость 17</t>
+  </si>
+  <si>
+    <t>Описание новости 17</t>
+  </si>
+  <si>
+    <t>/news/img18.jpg</t>
+  </si>
+  <si>
+    <t>Новость 18</t>
+  </si>
+  <si>
+    <t>Описание новости 18</t>
+  </si>
+  <si>
+    <t>/news/img19.jpg</t>
+  </si>
+  <si>
+    <t>Новость 19</t>
+  </si>
+  <si>
+    <t>Описание новости 19</t>
+  </si>
+  <si>
+    <t>/news/img20.jpg</t>
+  </si>
+  <si>
+    <t>Новость 20</t>
+  </si>
+  <si>
+    <t>Описание новости 20</t>
+  </si>
+  <si>
+    <t>/news/img21.jpg</t>
+  </si>
+  <si>
+    <t>Новость 21</t>
+  </si>
+  <si>
+    <t>Описание новости 21</t>
+  </si>
+  <si>
+    <t>/news/img22.jpg</t>
+  </si>
+  <si>
+    <t>Новость 22</t>
+  </si>
+  <si>
+    <t>Описание новости 22</t>
+  </si>
+  <si>
+    <t>/news/img23.jpg</t>
+  </si>
+  <si>
+    <t>Новость 23</t>
+  </si>
+  <si>
+    <t>Описание новости 23</t>
+  </si>
+  <si>
+    <t>/news/img24.jpg</t>
+  </si>
+  <si>
+    <t>Новость 24</t>
+  </si>
+  <si>
+    <t>Описание новости 24</t>
+  </si>
+  <si>
+    <t>/news/img25.jpg</t>
+  </si>
+  <si>
+    <t>Новость 25</t>
+  </si>
+  <si>
+    <t>Описание новости 25</t>
+  </si>
+  <si>
+    <t>/news/img26.jpg</t>
+  </si>
+  <si>
+    <t>Новость 26</t>
+  </si>
+  <si>
+    <t>Описание новости 26</t>
+  </si>
+  <si>
+    <t>/news/img27.jpg</t>
+  </si>
+  <si>
+    <t>Новость 27</t>
+  </si>
+  <si>
+    <t>Описание новости 27</t>
+  </si>
+  <si>
+    <t>/news/img28.jpg</t>
+  </si>
+  <si>
+    <t>Новость 28</t>
+  </si>
+  <si>
+    <t>Описание новости 28</t>
+  </si>
+  <si>
+    <t>/news/img29.jpg</t>
+  </si>
+  <si>
+    <t>Новость 29</t>
+  </si>
+  <si>
+    <t>Описание новости 29</t>
+  </si>
+  <si>
+    <t>/news/img30.jpg</t>
+  </si>
+  <si>
+    <t>Новость 30</t>
+  </si>
+  <si>
+    <t>Описание новости 30</t>
+  </si>
+  <si>
+    <t>/news/img31.jpg</t>
+  </si>
+  <si>
+    <t>Новость 31</t>
+  </si>
+  <si>
+    <t>Описание новости 31</t>
+  </si>
+  <si>
+    <t>/news/img32.jpg</t>
+  </si>
+  <si>
+    <t>Новость 32</t>
+  </si>
+  <si>
+    <t>Описание новости 32</t>
+  </si>
+  <si>
+    <t>/news/img33.jpg</t>
+  </si>
+  <si>
+    <t>Новость 33</t>
+  </si>
+  <si>
+    <t>Описание новости 33</t>
+  </si>
+  <si>
+    <t>/news/img34.jpg</t>
+  </si>
+  <si>
+    <t>Новость 34</t>
+  </si>
+  <si>
+    <t>Описание новости 34</t>
+  </si>
+  <si>
+    <t>/news/img35.jpg</t>
+  </si>
+  <si>
+    <t>Новость 35</t>
+  </si>
+  <si>
+    <t>Описание новости 35</t>
+  </si>
+  <si>
+    <t>/news/img36.jpg</t>
+  </si>
+  <si>
+    <t>Новость 36</t>
+  </si>
+  <si>
+    <t>Описание новости 36</t>
+  </si>
+  <si>
+    <t>/news/img37.jpg</t>
+  </si>
+  <si>
+    <t>Новость 37</t>
+  </si>
+  <si>
+    <t>Описание новости 37</t>
+  </si>
+  <si>
+    <t>/news/img38.jpg</t>
+  </si>
+  <si>
+    <t>Новость 38</t>
+  </si>
+  <si>
+    <t>Описание новости 38</t>
+  </si>
+  <si>
+    <t>/news/img39.jpg</t>
+  </si>
+  <si>
+    <t>Новость 39</t>
+  </si>
+  <si>
+    <t>Описание новости 39</t>
+  </si>
+  <si>
+    <t>/news/img40.jpg</t>
+  </si>
+  <si>
+    <t>Новость 40</t>
+  </si>
+  <si>
+    <t>Описание новости 40</t>
+  </si>
+  <si>
+    <t>/news/img41.jpg</t>
+  </si>
+  <si>
+    <t>Новость 41</t>
+  </si>
+  <si>
+    <t>Описание новости 41</t>
+  </si>
+  <si>
+    <t>/news/img42.jpg</t>
+  </si>
+  <si>
+    <t>Новость 42</t>
+  </si>
+  <si>
+    <t>Описание новости 42</t>
+  </si>
+  <si>
+    <t>/news/img43.jpg</t>
+  </si>
+  <si>
+    <t>Новость 43</t>
+  </si>
+  <si>
+    <t>Описание новости 43</t>
+  </si>
+  <si>
+    <t>/news/img44.jpg</t>
+  </si>
+  <si>
+    <t>Новость 44</t>
+  </si>
+  <si>
+    <t>Описание новости 44</t>
+  </si>
+  <si>
+    <t>/news/img45.jpg</t>
+  </si>
+  <si>
+    <t>Новость 45</t>
+  </si>
+  <si>
+    <t>Описание новости 45</t>
+  </si>
+  <si>
+    <t>/news/img46.jpg</t>
+  </si>
+  <si>
+    <t>Новость 46</t>
+  </si>
+  <si>
+    <t>Описание новости 46</t>
+  </si>
+  <si>
+    <t>/news/img47.jpg</t>
+  </si>
+  <si>
+    <t>Новость 47</t>
+  </si>
+  <si>
+    <t>Описание новости 47</t>
+  </si>
+  <si>
+    <t>/news/img48.jpg</t>
+  </si>
+  <si>
+    <t>Новость 48</t>
+  </si>
+  <si>
+    <t>Описание новости 48</t>
+  </si>
+  <si>
+    <t>/news/img49.jpg</t>
+  </si>
+  <si>
+    <t>Новость 49</t>
+  </si>
+  <si>
+    <t>Описание новости 49</t>
+  </si>
+  <si>
+    <t>/news/img50.jpg</t>
+  </si>
+  <si>
+    <t>Новость 50</t>
+  </si>
+  <si>
+    <t>Описание новости 50</t>
+  </si>
+  <si>
+    <t>/news/img51.jpg</t>
+  </si>
+  <si>
+    <t>Новость 51</t>
+  </si>
+  <si>
+    <t>Описание новости 51</t>
+  </si>
+  <si>
+    <t>/news/img52.jpg</t>
+  </si>
+  <si>
+    <t>Новость 52</t>
+  </si>
+  <si>
+    <t>Описание новости 52</t>
+  </si>
+  <si>
+    <t>/news/img53.jpg</t>
+  </si>
+  <si>
+    <t>Новость 53</t>
+  </si>
+  <si>
+    <t>Описание новости 53</t>
+  </si>
+  <si>
+    <t>/news/img54.jpg</t>
+  </si>
+  <si>
+    <t>Новость 54</t>
+  </si>
+  <si>
+    <t>Описание новости 54</t>
+  </si>
+  <si>
+    <t>/news/img55.jpg</t>
+  </si>
+  <si>
+    <t>Новость 55</t>
+  </si>
+  <si>
+    <t>Описание новости 55</t>
+  </si>
+  <si>
+    <t>/news/img56.jpg</t>
+  </si>
+  <si>
+    <t>Новость 56</t>
+  </si>
+  <si>
+    <t>Описание новости 56</t>
+  </si>
+  <si>
+    <t>/news/img57.jpg</t>
+  </si>
+  <si>
+    <t>Новость 57</t>
+  </si>
+  <si>
+    <t>Описание новости 57</t>
+  </si>
+  <si>
+    <t>/news/img58.jpg</t>
+  </si>
+  <si>
+    <t>Новость 58</t>
+  </si>
+  <si>
+    <t>Описание новости 58</t>
+  </si>
+  <si>
+    <t>/news/img59.jpg</t>
+  </si>
+  <si>
+    <t>Новость 59</t>
+  </si>
+  <si>
+    <t>Описание новости 59</t>
+  </si>
+  <si>
+    <t>/news/img60.jpg</t>
+  </si>
+  <si>
+    <t>Новость 60</t>
+  </si>
+  <si>
+    <t>Описание новости 60</t>
+  </si>
+  <si>
+    <t>/news/img61.jpg</t>
+  </si>
+  <si>
+    <t>Новость 61</t>
+  </si>
+  <si>
+    <t>Описание новости 61</t>
+  </si>
+  <si>
+    <t>/news/img62.jpg</t>
+  </si>
+  <si>
+    <t>Новость 62</t>
+  </si>
+  <si>
+    <t>Описание новости 62</t>
+  </si>
+  <si>
+    <t>/news/img63.jpg</t>
+  </si>
+  <si>
+    <t>Новость 63</t>
+  </si>
+  <si>
+    <t>Описание новости 63</t>
+  </si>
+  <si>
+    <t>/news/img64.jpg</t>
+  </si>
+  <si>
+    <t>Новость 64</t>
+  </si>
+  <si>
+    <t>Описание новости 64</t>
+  </si>
+  <si>
+    <t>/news/img65.jpg</t>
+  </si>
+  <si>
+    <t>Новость 65</t>
+  </si>
+  <si>
+    <t>Описание новости 65</t>
+  </si>
+  <si>
+    <t>/news/img66.jpg</t>
+  </si>
+  <si>
+    <t>Новость 66</t>
+  </si>
+  <si>
+    <t>Описание новости 66</t>
+  </si>
+  <si>
+    <t>/news/img67.jpg</t>
+  </si>
+  <si>
+    <t>Новость 67</t>
+  </si>
+  <si>
+    <t>Описание новости 67</t>
+  </si>
+  <si>
+    <t>/news/img68.jpg</t>
+  </si>
+  <si>
+    <t>Новость 68</t>
+  </si>
+  <si>
+    <t>Описание новости 68</t>
+  </si>
+  <si>
+    <t>/news/img69.jpg</t>
+  </si>
+  <si>
+    <t>Новость 69</t>
+  </si>
+  <si>
+    <t>Описание новости 69</t>
+  </si>
+  <si>
+    <t>/news/img70.jpg</t>
+  </si>
+  <si>
+    <t>Новость 70</t>
+  </si>
+  <si>
+    <t>Описание новости 70</t>
+  </si>
+  <si>
+    <t>/news/img71.jpg</t>
+  </si>
+  <si>
+    <t>Новость 71</t>
+  </si>
+  <si>
+    <t>Описание новости 71</t>
+  </si>
+  <si>
+    <t>/news/img72.jpg</t>
+  </si>
+  <si>
+    <t>Новость 72</t>
+  </si>
+  <si>
+    <t>Описание новости 72</t>
+  </si>
+  <si>
+    <t>/news/img73.jpg</t>
+  </si>
+  <si>
+    <t>Новость 73</t>
+  </si>
+  <si>
+    <t>Описание новости 73</t>
+  </si>
+  <si>
+    <t>/news/img74.jpg</t>
+  </si>
+  <si>
+    <t>Новость 74</t>
+  </si>
+  <si>
+    <t>Описание новости 74</t>
+  </si>
+  <si>
+    <t>/news/img75.jpg</t>
+  </si>
+  <si>
+    <t>Новость 75</t>
+  </si>
+  <si>
+    <t>Описание новости 75</t>
+  </si>
+  <si>
+    <t>/news/img76.jpg</t>
+  </si>
+  <si>
+    <t>Новость 76</t>
+  </si>
+  <si>
+    <t>Описание новости 76</t>
+  </si>
+  <si>
+    <t>/news/img77.jpg</t>
+  </si>
+  <si>
+    <t>Новость 77</t>
+  </si>
+  <si>
+    <t>Описание новости 77</t>
+  </si>
+  <si>
+    <t>/news/img78.jpg</t>
+  </si>
+  <si>
+    <t>Новость 78</t>
+  </si>
+  <si>
+    <t>Описание новости 78</t>
+  </si>
+  <si>
+    <t>/news/img79.jpg</t>
+  </si>
+  <si>
+    <t>Новость 79</t>
+  </si>
+  <si>
+    <t>Описание новости 79</t>
+  </si>
+  <si>
+    <t>/news/img80.jpg</t>
+  </si>
+  <si>
+    <t>Новость 80</t>
+  </si>
+  <si>
+    <t>Описание новости 80</t>
+  </si>
+  <si>
+    <t>/news/img81.jpg</t>
+  </si>
+  <si>
+    <t>Новость 81</t>
+  </si>
+  <si>
+    <t>Описание новости 81</t>
+  </si>
+  <si>
+    <t>/news/img82.jpg</t>
+  </si>
+  <si>
+    <t>Новость 82</t>
+  </si>
+  <si>
+    <t>Описание новости 82</t>
+  </si>
+  <si>
+    <t>/news/img83.jpg</t>
+  </si>
+  <si>
+    <t>Новость 83</t>
+  </si>
+  <si>
+    <t>Описание новости 83</t>
+  </si>
+  <si>
+    <t>/news/img84.jpg</t>
+  </si>
+  <si>
+    <t>Новость 84</t>
+  </si>
+  <si>
+    <t>Описание новости 84</t>
+  </si>
+  <si>
+    <t>/news/img85.jpg</t>
+  </si>
+  <si>
+    <t>Новость 85</t>
+  </si>
+  <si>
+    <t>Описание новости 85</t>
+  </si>
+  <si>
+    <t>/news/img86.jpg</t>
+  </si>
+  <si>
+    <t>Новость 86</t>
+  </si>
+  <si>
+    <t>Описание новости 86</t>
+  </si>
+  <si>
+    <t>/news/img87.jpg</t>
+  </si>
+  <si>
+    <t>Новость 87</t>
+  </si>
+  <si>
+    <t>Описание новости 87</t>
+  </si>
+  <si>
+    <t>/news/img88.jpg</t>
+  </si>
+  <si>
+    <t>Новость 88</t>
+  </si>
+  <si>
+    <t>Описание новости 88</t>
+  </si>
+  <si>
+    <t>/news/img89.jpg</t>
+  </si>
+  <si>
+    <t>Новость 89</t>
+  </si>
+  <si>
+    <t>Описание новости 89</t>
+  </si>
+  <si>
+    <t>/news/img90.jpg</t>
+  </si>
+  <si>
+    <t>Новость 90</t>
+  </si>
+  <si>
+    <t>Описание новости 90</t>
+  </si>
+  <si>
+    <t>/news/img91.jpg</t>
+  </si>
+  <si>
+    <t>Новость 91</t>
+  </si>
+  <si>
+    <t>Описание новости 91</t>
+  </si>
+  <si>
+    <t>/news/img92.jpg</t>
+  </si>
+  <si>
+    <t>Новость 92</t>
+  </si>
+  <si>
+    <t>Описание новости 92</t>
+  </si>
+  <si>
+    <t>/news/img93.jpg</t>
+  </si>
+  <si>
+    <t>Новость 93</t>
+  </si>
+  <si>
+    <t>Описание новости 93</t>
+  </si>
+  <si>
+    <t>/news/img94.jpg</t>
+  </si>
+  <si>
+    <t>Новость 94</t>
+  </si>
+  <si>
+    <t>Описание новости 94</t>
+  </si>
+  <si>
+    <t>/news/img95.jpg</t>
+  </si>
+  <si>
+    <t>Новость 95</t>
+  </si>
+  <si>
+    <t>Описание новости 95</t>
+  </si>
+  <si>
+    <t>/news/img96.jpg</t>
+  </si>
+  <si>
+    <t>Новость 96</t>
+  </si>
+  <si>
+    <t>Описание новости 96</t>
+  </si>
+  <si>
+    <t>/news/img97.jpg</t>
+  </si>
+  <si>
+    <t>Новость 97</t>
+  </si>
+  <si>
+    <t>Описание новости 97</t>
+  </si>
+  <si>
+    <t>/news/img98.jpg</t>
+  </si>
+  <si>
+    <t>Новость 98</t>
+  </si>
+  <si>
+    <t>Описание новости 98</t>
+  </si>
+  <si>
+    <t>/news/img99.jpg</t>
+  </si>
+  <si>
+    <t>Новость 99</t>
+  </si>
+  <si>
+    <t>Описание новости 99</t>
+  </si>
+  <si>
+    <t>/news/img100.jpg</t>
+  </si>
+  <si>
+    <t>Новость 100</t>
+  </si>
+  <si>
+    <t>Описание новости 100</t>
   </si>
 </sst>
 </file>
@@ -1894,6 +2795,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4481,7 +5386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B440DF-5323-483E-8564-6382F70DF205}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -6793,4 +7698,2022 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE6959C-B5B8-486F-AB6D-31315114045D}">
+  <dimension ref="A1:F100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1" s="3">
+        <v>25569</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0.40347222222222223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E2" s="3">
+        <v>25570</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.44513888888888886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E3" s="3">
+        <v>25571</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E4" s="3">
+        <v>25572</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.52847222222222223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E5" s="3">
+        <v>25573</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.57013888888888886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E6" s="3">
+        <v>25574</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.6118055555555556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E7" s="3">
+        <v>25575</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.65347222222222223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E8" s="3">
+        <v>25576</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.69513888888888886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E9" s="3">
+        <v>25577</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.7368055555555556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E10" s="3">
+        <v>25578</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.77847222222222223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E11" s="3">
+        <v>25579</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.82013888888888886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25580</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.8618055555555556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E13" s="3">
+        <v>25581</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.90347222222222223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E14" s="3">
+        <v>25582</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E15" s="3">
+        <v>25583</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.9868055555555556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E16" s="3">
+        <v>25584</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2.8472222222222222E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E17" s="3">
+        <v>25585</v>
+      </c>
+      <c r="F17" s="4">
+        <v>7.013888888888889E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E18" s="3">
+        <v>25586</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.11180555555555556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="E19" s="3">
+        <v>25587</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.15347222222222223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E20" s="3">
+        <v>25588</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.19513888888888889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E21" s="3">
+        <v>25589</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.23680555555555555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="E22" s="3">
+        <v>25590</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.27847222222222223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E23" s="3">
+        <v>25591</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.32013888888888886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E24" s="3">
+        <v>25592</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.36180555555555555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="E25" s="3">
+        <v>25593</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.40347222222222223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E26" s="3">
+        <v>25594</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.44513888888888886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E27" s="3">
+        <v>25595</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E28" s="3">
+        <v>25596</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.52847222222222223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E29" s="3">
+        <v>25597</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.57013888888888886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E30" s="3">
+        <v>25598</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.6118055555555556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="E31" s="3">
+        <v>25599</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.65347222222222223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E32" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.69513888888888886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="E33" s="3">
+        <v>25601</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.7368055555555556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E34" s="3">
+        <v>25602</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.77847222222222223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E35" s="3">
+        <v>25603</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.82013888888888886</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E36" s="3">
+        <v>25604</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.8618055555555556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E37" s="3">
+        <v>25605</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.90347222222222223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E38" s="3">
+        <v>25606</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="E39" s="3">
+        <v>25607</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.9868055555555556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="E40" s="3">
+        <v>25608</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2.8472222222222222E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E41" s="3">
+        <v>25609</v>
+      </c>
+      <c r="F41" s="4">
+        <v>7.013888888888889E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E42" s="3">
+        <v>25610</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.11180555555555556</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="E43" s="3">
+        <v>25611</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.15347222222222223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E44" s="3">
+        <v>25612</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.19513888888888889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="E45" s="3">
+        <v>25613</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.23680555555555555</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E46" s="3">
+        <v>25614</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.27847222222222223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E47" s="3">
+        <v>25615</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.32013888888888886</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E48" s="3">
+        <v>25616</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.36180555555555555</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E49" s="3">
+        <v>25617</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.40347222222222223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="E50" s="3">
+        <v>25618</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.44513888888888886</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E51" s="3">
+        <v>25619</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E52" s="3">
+        <v>25620</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.52847222222222223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E53" s="3">
+        <v>25621</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.57013888888888886</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="E54" s="3">
+        <v>25622</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.6118055555555556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="E55" s="3">
+        <v>25623</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.65347222222222223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E56" s="3">
+        <v>25624</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.69513888888888886</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="E57" s="3">
+        <v>25625</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.7368055555555556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E58" s="3">
+        <v>25626</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.77847222222222223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="E59" s="3">
+        <v>25627</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.82013888888888886</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="E60" s="3">
+        <v>25628</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.8618055555555556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E61" s="3">
+        <v>25629</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.90347222222222223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="E62" s="3">
+        <v>25630</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E63" s="3">
+        <v>25631</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.9868055555555556</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="E64" s="3">
+        <v>25632</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2.8472222222222222E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E65" s="3">
+        <v>25633</v>
+      </c>
+      <c r="F65" s="4">
+        <v>7.013888888888889E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25634</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0.11180555555555556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="E67" s="3">
+        <v>25635</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0.15347222222222223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E68" s="3">
+        <v>25636</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0.19513888888888889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="E69" s="3">
+        <v>25637</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0.23680555555555555</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="E70" s="3">
+        <v>25638</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0.27847222222222223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E71" s="3">
+        <v>25639</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.32013888888888886</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E72" s="3">
+        <v>25640</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0.36180555555555555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E73" s="3">
+        <v>25641</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0.40347222222222223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="E74" s="3">
+        <v>25642</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0.44513888888888886</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E75" s="3">
+        <v>25643</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E76" s="3">
+        <v>25644</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0.52847222222222223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="E77" s="3">
+        <v>25645</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0.57013888888888886</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="E78" s="3">
+        <v>25646</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0.6118055555555556</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="E79" s="3">
+        <v>25647</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0.65347222222222223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="E80" s="3">
+        <v>25648</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0.69513888888888886</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E81" s="3">
+        <v>25649</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0.7368055555555556</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="E82" s="3">
+        <v>25650</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0.77847222222222223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E83" s="3">
+        <v>25651</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0.82013888888888886</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="E84" s="3">
+        <v>25652</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0.8618055555555556</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E85" s="3">
+        <v>25653</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0.90347222222222223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E86" s="3">
+        <v>25654</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="E87" s="3">
+        <v>25655</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0.9868055555555556</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="E88" s="3">
+        <v>25656</v>
+      </c>
+      <c r="F88" s="4">
+        <v>2.8472222222222222E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E89" s="3">
+        <v>25657</v>
+      </c>
+      <c r="F89" s="4">
+        <v>7.013888888888889E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="E90" s="3">
+        <v>25658</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0.11180555555555556</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="E91" s="3">
+        <v>25659</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0.15347222222222223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="E92" s="3">
+        <v>25660</v>
+      </c>
+      <c r="F92" s="4">
+        <v>0.19513888888888889</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="E93" s="3">
+        <v>25661</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0.23680555555555555</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="E94" s="3">
+        <v>25662</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0.27847222222222223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="E95" s="3">
+        <v>25663</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0.32013888888888886</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="E96" s="3">
+        <v>25664</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0.36180555555555555</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="E97" s="3">
+        <v>25665</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0.40347222222222223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="E98" s="3">
+        <v>25666</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0.44513888888888886</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="E99" s="3">
+        <v>25667</v>
+      </c>
+      <c r="F99" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="E100" s="3">
+        <v>25668</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0.52847222222222223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>